--- a/biology/Médecine/1258_en_santé_et_médecine/1258_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1258_en_santé_et_médecine/1258_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1258_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1258_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1258 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1258_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1258_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Avec l'amende infligée à Enguerrand de Coucy pour sa cruauté, le roi Saint Louis fait reconstruire l'hôtel-Dieu de Pontoise, et il en donne la direction aux augustiniennes qui la conserveront jusqu'à la Révolution[2],[3].
-Le roi de France Louis IX donne des statuts à la corporation des apothicaires  « qui seront seuls responsables de la préparation et de la vente des médicaments[4] ».
-La république de Venise donne à la corporation des apothicaires des statuts par lesquels il leur est interdit de passer accord avec un médecin[5].
-Fondation par le sire de Beaufort d'une maladrerie près de la ville de Huy aux Pays-Bas[6].
-À Châteaufort en Île-de-France, Mathilde de Marly fonde un hôpital confié aux trinitaires de l'abbaye de Saint-Victor[7].
-1258-1259 : en abaissant la luminosité et la température, le nuage de gaz soufrés dégagé en Indonésie l'année précédente par l'éruption du volcan Samalas provoque dans toute l'Europe, et plus particulièrement à Londres, la famine dont témoigne le chroniqueur Matthieu Paris dans son Historia Anglorum[8],[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Avec l'amende infligée à Enguerrand de Coucy pour sa cruauté, le roi Saint Louis fait reconstruire l'hôtel-Dieu de Pontoise, et il en donne la direction aux augustiniennes qui la conserveront jusqu'à la Révolution,.
+Le roi de France Louis IX donne des statuts à la corporation des apothicaires  « qui seront seuls responsables de la préparation et de la vente des médicaments ».
+La république de Venise donne à la corporation des apothicaires des statuts par lesquels il leur est interdit de passer accord avec un médecin.
+Fondation par le sire de Beaufort d'une maladrerie près de la ville de Huy aux Pays-Bas.
+À Châteaufort en Île-de-France, Mathilde de Marly fonde un hôpital confié aux trinitaires de l'abbaye de Saint-Victor.
+1258-1259 : en abaissant la luminosité et la température, le nuage de gaz soufrés dégagé en Indonésie l'année précédente par l'éruption du volcan Samalas provoque dans toute l'Europe, et plus particulièrement à Londres, la famine dont témoigne le chroniqueur Matthieu Paris dans son Historia Anglorum,.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1258_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1258_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sous le titre de Seper ha-shimmush, Shem-Tob ben Isaac (en), rabbin et médecin espagnol, achève sa traduction[10] des trente volumes du Kitab al-tasrif, œuvre majeure du chirurgien arabe Abulcasis.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sous le titre de Seper ha-shimmush, Shem-Tob ben Isaac (en), rabbin et médecin espagnol, achève sa traduction des trente volumes du Kitab al-tasrif, œuvre majeure du chirurgien arabe Abulcasis.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1258_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1258_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1258 : Bernard de Gordon (mort avant 1330), médecin français, surtout connu comme auteur du Lilium medicine, traité de médecine pratique abondamment consulté jusque dans les premières décennies du XVIIe siècle[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1258 : Bernard de Gordon (mort avant 1330), médecin français, surtout connu comme auteur du Lilium medicine, traité de médecine pratique abondamment consulté jusque dans les premières décennies du XVIIe siècle.
 </t>
         </is>
       </c>
